--- a/without_index.xlsx
+++ b/without_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
@@ -502,6 +507,9 @@
       <c r="H2" t="n">
         <v>413</v>
       </c>
+      <c r="I2" t="n">
+        <v>826</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -530,6 +538,9 @@
       <c r="H3" t="n">
         <v>303</v>
       </c>
+      <c r="I3" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -558,6 +569,9 @@
       <c r="H4" t="n">
         <v>377</v>
       </c>
+      <c r="I4" t="n">
+        <v>754</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -586,6 +600,9 @@
       <c r="H5" t="n">
         <v>333</v>
       </c>
+      <c r="I5" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -614,6 +631,9 @@
       <c r="H6" t="n">
         <v>424</v>
       </c>
+      <c r="I6" t="n">
+        <v>848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -642,6 +662,9 @@
       <c r="H7" t="n">
         <v>420</v>
       </c>
+      <c r="I7" t="n">
+        <v>840</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -670,6 +693,9 @@
       <c r="H8" t="n">
         <v>427</v>
       </c>
+      <c r="I8" t="n">
+        <v>854</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -698,6 +724,9 @@
       <c r="H9" t="n">
         <v>355</v>
       </c>
+      <c r="I9" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -726,6 +755,9 @@
       <c r="H10" t="n">
         <v>393</v>
       </c>
+      <c r="I10" t="n">
+        <v>786</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -754,6 +786,9 @@
       <c r="H11" t="n">
         <v>404</v>
       </c>
+      <c r="I11" t="n">
+        <v>808</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -782,6 +817,9 @@
       <c r="H12" t="n">
         <v>373</v>
       </c>
+      <c r="I12" t="n">
+        <v>746</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -810,6 +848,9 @@
       <c r="H13" t="n">
         <v>300</v>
       </c>
+      <c r="I13" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +879,9 @@
       <c r="H14" t="n">
         <v>410</v>
       </c>
+      <c r="I14" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -866,6 +910,9 @@
       <c r="H15" t="n">
         <v>213</v>
       </c>
+      <c r="I15" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -894,6 +941,9 @@
       <c r="H16" t="n">
         <v>196</v>
       </c>
+      <c r="I16" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -922,6 +972,9 @@
       <c r="H17" t="n">
         <v>387</v>
       </c>
+      <c r="I17" t="n">
+        <v>774</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -950,6 +1003,9 @@
       <c r="H18" t="n">
         <v>317</v>
       </c>
+      <c r="I18" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -978,6 +1034,9 @@
       <c r="H19" t="n">
         <v>391</v>
       </c>
+      <c r="I19" t="n">
+        <v>782</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1006,6 +1065,9 @@
       <c r="H20" t="n">
         <v>434</v>
       </c>
+      <c r="I20" t="n">
+        <v>868</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1033,6 +1095,9 @@
       </c>
       <c r="H21" t="n">
         <v>372</v>
+      </c>
+      <c r="I21" t="n">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
